--- a/DataTable/RewardTable.xlsx
+++ b/DataTable/RewardTable.xlsx
@@ -36,7 +36,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>list&lt;int&gt;</t>
+    <t>List&lt;int&gt;</t>
   </si>
   <si>
     <t>#目录</t>
@@ -72,12 +72,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,9 +87,138 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -100,142 +229,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -246,187 +239,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,6 +430,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -449,17 +457,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,17 +492,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,31 +516,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,148 +535,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -691,7 +684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1048,7 +1041,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>

--- a/DataTable/RewardTable.xlsx
+++ b/DataTable/RewardTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>Id</t>
   </si>
@@ -27,6 +27,15 @@
     <t>Text</t>
   </si>
   <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>diamond</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
     <t>EventList</t>
   </si>
   <si>
@@ -46,6 +55,15 @@
   </si>
   <si>
     <t>奖励文本，富文本形式</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
+    <t>经验</t>
   </si>
   <si>
     <t>奖励物品</t>
@@ -74,8 +92,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -87,6 +105,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -96,6 +158,52 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,71 +217,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -182,9 +225,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,31 +234,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,187 +257,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,46 +451,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,16 +484,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -530,6 +513,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -538,145 +556,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,19 +1056,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="38.5" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="3" max="6" width="38.5" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1063,55 +1081,106 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" ht="40.5" spans="1:3">
+    <row r="4" ht="40.5" spans="1:7">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" ht="40.5" spans="1:3">
+    <row r="5" ht="40.5" spans="1:7">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DataTable/RewardTable.xlsx
+++ b/DataTable/RewardTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>Id</t>
   </si>
@@ -36,7 +36,7 @@
     <t>exp</t>
   </si>
   <si>
-    <t>EventList</t>
+    <t>CardList</t>
   </si>
   <si>
     <t>int</t>
@@ -75,6 +75,9 @@
     <t>[FF0000]圣者遗物      X1[-]
 [00FF00]恶魔刀锋      X1[-]
 [FFFF00]撒旦邪力      X1[-]</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
   </si>
   <si>
     <t>奖励2</t>
@@ -90,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -105,19 +108,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -126,14 +160,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -141,30 +183,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,38 +193,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,16 +214,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,17 +245,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -257,25 +260,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,151 +434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,9 +456,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,32 +513,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,22 +537,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,10 +559,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,133 +571,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,7 +1062,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1148,16 +1151,16 @@
         <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2">
         <v>10</v>
       </c>
-      <c r="G4">
-        <v>1</v>
+      <c r="G4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="1:7">
@@ -1165,10 +1168,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
